--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1416631.462664823</v>
+        <v>1414150.542839361</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763543</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>47.319946578445</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335567</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545852</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663272</v>
+        <v>354.0471768951641</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001942</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579963</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104952</v>
+        <v>82.26761520104934</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524939</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717757</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830086</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302867</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913428</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.911833594811</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115016</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310861</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594429</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>16.82824115216776</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719019</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271945</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271178</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292083</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443156</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890429</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>186.8950895317335</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019109</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649685</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763543</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838813</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335567</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851355</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>91.15682898816389</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663272</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001942</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579946</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104952</v>
+        <v>82.26761520104932</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302867</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913428</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689273</v>
+        <v>339.9532400480888</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.911833594811</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115016</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594429</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>68.85017973406281</v>
       </c>
       <c r="G16" t="n">
-        <v>50.89576438543012</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271945</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292105</v>
+        <v>62.01200608292083</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443156</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890429</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184866</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367017</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649685</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652884</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665429</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477346</v>
+        <v>312.0094110008741</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245691</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U17" t="n">
-        <v>124.835528854743</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116941</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290891</v>
+        <v>93.35153789290871</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249343</v>
+        <v>74.72018981249323</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085025</v>
+        <v>72.53867944085005</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721232</v>
+        <v>71.52576481721212</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1305250533093</v>
+        <v>92.1305250533091</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860186</v>
+        <v>70.85973170860166</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411917</v>
+        <v>22.45713720411899</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0368694643284</v>
+        <v>15.03686946432825</v>
       </c>
       <c r="S19" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704503</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>274.7162491948574</v>
       </c>
       <c r="V19" t="n">
-        <v>240.6420543130707</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308721</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>151.814372183318</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652887</v>
+        <v>291.3776085652884</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477346</v>
+        <v>3.974324134330686</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245672</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531831</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>236.8850939484333</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503347</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290892</v>
+        <v>93.35153789290871</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249344</v>
+        <v>74.72018981249323</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085026</v>
+        <v>72.53867944085005</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721233</v>
+        <v>71.52576481721212</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330931</v>
+        <v>92.1305250533091</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860187</v>
+        <v>70.85973170860166</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411919</v>
+        <v>22.45713720411899</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.43656365928966</v>
+        <v>15.03686946432822</v>
       </c>
       <c r="S22" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704503</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
-        <v>212.316554999894</v>
+        <v>212.3165549998937</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181091</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308721</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833183</v>
+        <v>151.814372183318</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463759</v>
+        <v>207.0890643413399</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652887</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149641</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359926</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477346</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245699</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339013</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531831</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644161</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116942</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727502</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503347</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762184</v>
+        <v>168.3363911711821</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290898</v>
+        <v>93.35153789290874</v>
       </c>
       <c r="D25" t="n">
-        <v>74.7201898124935</v>
+        <v>74.72018981249326</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085032</v>
+        <v>72.53867944085007</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721239</v>
+        <v>71.52576481721215</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330937</v>
+        <v>92.13052505330913</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860193</v>
+        <v>70.85973170860169</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411926</v>
+        <v>22.45713720411901</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>77.43656365928854</v>
+        <v>15.03686946432825</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257231</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704504</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
-        <v>212.316554999894</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181092</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308722</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833183</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3086,7 +3086,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007086</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,16 +3323,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846418</v>
+        <v>90.95618068285746</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.0843051033369</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>163.1068713883836</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
         <v>230.0675382420299</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247631</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092316</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>50.95950582245131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>205.4124289181752</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592144</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.0675382420299</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279501</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846411</v>
+        <v>99.70874824091518</v>
       </c>
       <c r="F43" t="n">
-        <v>89.94326605922045</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092316</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925804</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592146</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
         <v>230.0675382420299</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383223</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010729</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482618</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092316</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>240.8189236182269</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>163.1068713883836</v>
       </c>
     </row>
   </sheetData>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1502.254258673505</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C11" t="n">
-        <v>1454.456332836692</v>
+        <v>797.536544276728</v>
       </c>
       <c r="D11" t="n">
-        <v>1123.382701489665</v>
+        <v>797.536544276728</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489665</v>
+        <v>438.9403589382075</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597806</v>
+        <v>438.9403589382075</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645006</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299128</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912096</v>
@@ -5057,34 +5057,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573496</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489649</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
         <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>1861.662031477903</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1861.662031477903</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5136,31 +5136,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.5713293855563</v>
+        <v>418.3126375609376</v>
       </c>
       <c r="C13" t="n">
-        <v>639.8272137173728</v>
+        <v>276.5685218927545</v>
       </c>
       <c r="D13" t="n">
-        <v>516.9026415647605</v>
+        <v>153.6439497401424</v>
       </c>
       <c r="E13" t="n">
-        <v>396.1816152420907</v>
+        <v>153.6439497401424</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420907</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765332</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541145</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705052</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402564</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.94255636106</v>
+        <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058533</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145083</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974332</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1781.433743974332</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1592.65082525541</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1330.425722478173</v>
+        <v>967.1670306535534</v>
       </c>
       <c r="X13" t="n">
-        <v>1129.628238839879</v>
+        <v>766.36954701526</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.0277269560725</v>
+        <v>572.7690351314536</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1848.301903863758</v>
+        <v>1158.867147513818</v>
       </c>
       <c r="C14" t="n">
-        <v>1506.53145418307</v>
+        <v>1158.867147513818</v>
       </c>
       <c r="D14" t="n">
-        <v>1175.457822836043</v>
+        <v>827.7935161667913</v>
       </c>
       <c r="E14" t="n">
-        <v>816.8616374975222</v>
+        <v>469.1973308282707</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589728</v>
+        <v>469.1973308282707</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636927</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
@@ -5285,43 +5285,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395992</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.507220395992</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>3242.507220395992</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>3242.507220395992</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2916.930632385601</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>2570.656941384244</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>2207.709676668156</v>
+        <v>1518.274920318216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,34 +5373,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>619.1101211992277</v>
+        <v>418.3126375609368</v>
       </c>
       <c r="C16" t="n">
-        <v>477.3660055310443</v>
+        <v>276.5685218927537</v>
       </c>
       <c r="D16" t="n">
-        <v>477.3660055310443</v>
+        <v>276.5685218927537</v>
       </c>
       <c r="E16" t="n">
-        <v>356.6449792083747</v>
+        <v>276.5685218927537</v>
       </c>
       <c r="F16" t="n">
-        <v>236.9470989701881</v>
+        <v>207.0228857977407</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5372359546021</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>138.285694000374</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705054</v>
+        <v>368.9238220705055</v>
       </c>
       <c r="L16" t="n">
         <v>712.1345656402566</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.94255636106</v>
+        <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
         <v>1451.00187818818</v>
@@ -5461,25 +5461,25 @@
         <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162334</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991584</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376951</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430787</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535505</v>
+        <v>967.1670306535526</v>
       </c>
       <c r="X16" t="n">
-        <v>967.1670306535505</v>
+        <v>766.3695470152591</v>
       </c>
       <c r="Y16" t="n">
-        <v>773.5665187697439</v>
+        <v>572.7690351314527</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1571.696340267699</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="C17" t="n">
-        <v>1277.375523535084</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>940.9592424104338</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446367</v>
+        <v>940.9592424104338</v>
       </c>
       <c r="F17" t="n">
-        <v>629.884766562826</v>
+        <v>604.6150378286234</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810548</v>
@@ -5522,43 +5522,43 @@
         <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936082</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U17" t="n">
-        <v>3032.524312143413</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V17" t="n">
-        <v>2776.103125007639</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W17" t="n">
-        <v>2497.976169945322</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2199.152111892039</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y17" t="n">
-        <v>1883.654480124024</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,37 +5607,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872292</v>
+        <v>569.1217789872278</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671191</v>
+        <v>474.827296267118</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625803</v>
+        <v>399.3523570625793</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879841</v>
+        <v>326.0809636879833</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978706</v>
+        <v>253.83271639787</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803865</v>
+        <v>160.7715799803861</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604119</v>
+        <v>89.19609340604096</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1647.936691865763</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062877</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064789</v>
+        <v>1190.402743064787</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356256</v>
+        <v>975.6272732356235</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454052</v>
+        <v>822.2794225454033</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.128543609672</v>
+        <v>676.1285436096704</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1571.696340267699</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="C20" t="n">
-        <v>1277.375523535084</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>940.9592424104333</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446366</v>
+        <v>629.8126900199863</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628259</v>
+        <v>293.4684854381762</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
-        <v>3194.269774201191</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U20" t="n">
-        <v>3015.380997682824</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V20" t="n">
-        <v>2776.103125007639</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W20" t="n">
-        <v>2497.976169945322</v>
+        <v>2445.183887219623</v>
       </c>
       <c r="X20" t="n">
-        <v>2199.152111892039</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y20" t="n">
-        <v>1883.654480124024</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872293</v>
+        <v>569.1217789872278</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671193</v>
+        <v>474.827296267118</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625804</v>
+        <v>399.3523570625793</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879842</v>
+        <v>326.0809636879833</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978707</v>
+        <v>253.83271639787</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803865</v>
+        <v>160.7715799803861</v>
       </c>
       <c r="H22" t="n">
-        <v>89.1960934060412</v>
+        <v>89.19609340604096</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1849.075796917493</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952116</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729439</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.44553106288</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.40274306479</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356258</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454053</v>
+        <v>885.3094166817309</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096721</v>
+        <v>676.1285436096704</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056953</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324338</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925384</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349368</v>
+        <v>973.0946095349353</v>
       </c>
       <c r="F23" t="n">
-        <v>636.750404953126</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059184</v>
+        <v>296.3196550059181</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248244</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248244</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
@@ -5996,43 +5996,43 @@
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391687</v>
+        <v>1706.866817763031</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575123</v>
+        <v>2253.645634821813</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.80994645446</v>
+        <v>2756.61810570115</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811638</v>
+        <v>3151.392472058328</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.87067456732</v>
+        <v>3609.870674567316</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124122</v>
+        <v>3668.887741124118</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859015</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451033</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932667</v>
+        <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796893</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734575</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681292</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913278</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6051,34 +6051,34 @@
         <v>625.0220539290294</v>
       </c>
       <c r="E24" t="n">
-        <v>465.784598923574</v>
+        <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504589</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.886940783077</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094452</v>
+        <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248244</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243131</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934471</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061122</v>
+        <v>772.0173836061124</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
         <v>2103.778031800937</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775287</v>
+        <v>575.987417377527</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574186</v>
+        <v>481.6929346574171</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528797</v>
+        <v>406.2179954528784</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782834</v>
+        <v>332.9466020782824</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881699</v>
+        <v>260.6983547881691</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706857</v>
+        <v>167.6372183706851</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634028</v>
+        <v>96.06173179633997</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248244</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500387269418</v>
+        <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182942</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
@@ -6169,28 +6169,28 @@
         <v>1934.160186478791</v>
       </c>
       <c r="R25" t="n">
-        <v>1855.941435307793</v>
+        <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.897251342416</v>
+        <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119739</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453179</v>
+        <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455089</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259254</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357049</v>
+        <v>892.1750550720297</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999716</v>
+        <v>746.0241761362968</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F26" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>278.9067190210736</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>612.7260927109201</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1063.760305959329</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>1597.292210631254</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2577.0444828579</v>
+        <v>2468.655602521437</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737237</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456133</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644863</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032351</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977796</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246646</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572835</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951511</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875143</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965681</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.845421545561</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2568.163811692541</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3071.136282571877</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6564,25 +6564,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1339.011402386888</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058813</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2410.244144161087</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H33" t="n">
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973142</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982168</v>
@@ -6868,40 +6868,40 @@
         <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6920,52 +6920,52 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307326</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515854</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7020,46 +7020,46 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.602264964779</v>
+        <v>543.5641013650704</v>
       </c>
       <c r="C37" t="n">
-        <v>529.3375166107155</v>
+        <v>473.2993530110069</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983798</v>
+        <v>323.1827135986712</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898301</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332018</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663014</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X37" t="n">
-        <v>847.333710764997</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y37" t="n">
-        <v>682.5792952211752</v>
+        <v>626.5411316214668</v>
       </c>
     </row>
     <row r="38">
@@ -7157,22 +7157,22 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307326</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810562</v>
@@ -7184,7 +7184,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7196,13 +7196,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515854</v>
@@ -7211,7 +7211,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
@@ -7248,7 +7248,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.6022649647788</v>
+        <v>552.405078696442</v>
       </c>
       <c r="C40" t="n">
-        <v>529.3375166107154</v>
+        <v>383.4688957685352</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722231</v>
+        <v>332.0236909300428</v>
       </c>
       <c r="E40" t="n">
-        <v>329.97921818983</v>
+        <v>282.7820319214932</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919196</v>
+        <v>234.5635189974262</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404821</v>
+        <v>165.5321169459886</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>117.9863647376898</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7357,25 +7357,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1744.44964124669</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1621.35446039006</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1430.923028089547</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V40" t="n">
-        <v>1223.435726151996</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.689990688879</v>
+        <v>886.8213698466991</v>
       </c>
       <c r="X40" t="n">
-        <v>903.3718743647051</v>
+        <v>757.5032535225251</v>
       </c>
       <c r="Y40" t="n">
-        <v>781.2507297950185</v>
+        <v>635.3821089528384</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464964</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307323</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495717</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,22 +7409,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296686</v>
@@ -7442,16 +7442,16 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960651</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7506,34 +7506,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.2355359389144</v>
+        <v>453.7336441225984</v>
       </c>
       <c r="C43" t="n">
-        <v>571.970787584851</v>
+        <v>383.4688957685349</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725152</v>
+        <v>332.0236909300426</v>
       </c>
       <c r="E43" t="n">
-        <v>372.6124891639656</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
-        <v>281.7607052657631</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758175</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.397562552288</v>
+        <v>978.8956707359725</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891711</v>
+        <v>788.1499352728554</v>
       </c>
       <c r="X43" t="n">
-        <v>847.3337107649972</v>
+        <v>658.8318189486814</v>
       </c>
       <c r="Y43" t="n">
-        <v>725.2125661953106</v>
+        <v>536.7106743789947</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103807</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495719</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,7 +7646,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
@@ -7658,13 +7658,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7679,19 +7679,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7731,13 +7731,13 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>598.2565075725898</v>
+        <v>500.9308303909357</v>
       </c>
       <c r="C46" t="n">
-        <v>429.320324644683</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D46" t="n">
-        <v>377.8751198061908</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>328.6334607976411</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>280.4149478735743</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>211.3835458221368</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1621.35446039006</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1378.103022391851</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1222.089968759807</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>932.6727987228466</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X46" t="n">
-        <v>803.3546823986727</v>
+        <v>847.3337107649972</v>
       </c>
       <c r="Y46" t="n">
-        <v>681.2335378289861</v>
+        <v>682.5792952211755</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430621</v>
+        <v>157.2353108430634</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433728992</v>
+        <v>184.4039433729012</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389584</v>
+        <v>191.4948909389609</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333045</v>
+        <v>181.0856325333073</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830219</v>
+        <v>179.3553748830247</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383969</v>
+        <v>182.8301554383996</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586567</v>
+        <v>190.8908035586589</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266111</v>
+        <v>192.0103836266128</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875968</v>
+        <v>112.6562001875976</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372522</v>
+        <v>113.6031223372536</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672259</v>
+        <v>105.9629718672278</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253576</v>
+        <v>104.1013981253597</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677482</v>
+        <v>92.302465586777</v>
       </c>
       <c r="O9" t="n">
-        <v>106.882960835972</v>
+        <v>106.882960835974</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798311</v>
+        <v>105.3113487798327</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615449</v>
+        <v>120.821278461546</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.175525256465</v>
+        <v>116.175525256466</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085219</v>
+        <v>119.199607408523</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140769</v>
+        <v>108.428412314078</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530917</v>
+        <v>120.6694600530927</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662698</v>
+        <v>122.5080856662706</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>127.4994347185291</v>
       </c>
       <c r="N23" t="n">
-        <v>339.8144253784379</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>8.970374914504021</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,16 +9884,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>336.8335818149103</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>287.0017854473924</v>
+        <v>277.2206841544151</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,16 +10352,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>287.0017854473926</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>277.832108723647</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0221961971937</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>291.0327986054363</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851355</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>29.95440217116285</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358049</v>
+        <v>101.672660283637</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292105</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184866</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>38.32240720496818</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>288.7990701664212</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579965</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524939</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717757</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830086</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>19.36455202083825</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310861</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>49.65072170174194</v>
       </c>
       <c r="G16" t="n">
-        <v>88.20989728647183</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271178</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019109</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,16 +23735,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149641</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>25.01703144686019</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>52.26435989844009</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149641</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.0521183134036</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245691</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>16.97188131598272</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-9.600851698805437e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-2.458477865729947e-12</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>974883.7055485777</v>
+        <v>974883.7055485789</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797064.3242381068</v>
+        <v>797064.3242381071</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>797064.3242381066</v>
+        <v>797064.3242381071</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>866929.4561052854</v>
+        <v>866929.4561052856</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>909629.5707059284</v>
+        <v>909629.5707059281</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>895428.7258693635</v>
+        <v>895428.7258693634</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895428.7258693636</v>
+        <v>895428.7258693634</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340012</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="C2" t="n">
         <v>553011.528634001</v>
@@ -26320,40 +26320,40 @@
         <v>553026.6021190139</v>
       </c>
       <c r="E2" t="n">
-        <v>492439.5006108583</v>
+        <v>492439.5006108582</v>
       </c>
       <c r="F2" t="n">
-        <v>492439.5006108582</v>
+        <v>492439.5006108581</v>
       </c>
       <c r="G2" t="n">
-        <v>536308.3043414121</v>
+        <v>536308.304341412</v>
       </c>
       <c r="H2" t="n">
-        <v>536308.3043414121</v>
+        <v>536308.3043414119</v>
       </c>
       <c r="I2" t="n">
         <v>554203.1946583912</v>
       </c>
       <c r="J2" t="n">
-        <v>554203.1946583918</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="K2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="L2" t="n">
         <v>554203.1946583918</v>
       </c>
       <c r="M2" t="n">
-        <v>554203.1946583918</v>
+        <v>554203.1946583921</v>
       </c>
       <c r="N2" t="n">
         <v>554203.1946583918</v>
       </c>
       <c r="O2" t="n">
-        <v>554203.1946583919</v>
+        <v>554203.1946583918</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.194658392</v>
+        <v>554203.1946583916</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552549</v>
+        <v>59764.55367552215</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163629</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.4678298336</v>
+        <v>22821.46782983369</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.4330217968</v>
+        <v>25409.43302179698</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>435086.1724434253</v>
+        <v>435086.1724434266</v>
       </c>
       <c r="E4" t="n">
-        <v>40634.10590866192</v>
+        <v>40634.10590866218</v>
       </c>
       <c r="F4" t="n">
-        <v>40634.10590866192</v>
+        <v>40634.10590866218</v>
       </c>
       <c r="G4" t="n">
-        <v>77662.26627010424</v>
+        <v>77662.26627010442</v>
       </c>
       <c r="H4" t="n">
-        <v>77662.26627010423</v>
+        <v>77662.26627010439</v>
       </c>
       <c r="I4" t="n">
-        <v>91903.6849490593</v>
+        <v>91903.68494905929</v>
       </c>
       <c r="J4" t="n">
-        <v>91012.35309462826</v>
+        <v>91012.35309462828</v>
       </c>
       <c r="K4" t="n">
-        <v>91012.35309462834</v>
+        <v>91012.35309462831</v>
       </c>
       <c r="L4" t="n">
-        <v>91012.35309462831</v>
+        <v>91012.35309462823</v>
       </c>
       <c r="M4" t="n">
+        <v>92793.84288319404</v>
+      </c>
+      <c r="N4" t="n">
+        <v>92793.84288319405</v>
+      </c>
+      <c r="O4" t="n">
         <v>92793.84288319407</v>
       </c>
-      <c r="N4" t="n">
-        <v>92793.84288319413</v>
-      </c>
-      <c r="O4" t="n">
-        <v>92793.8428831941</v>
-      </c>
       <c r="P4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319404</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186643</v>
+        <v>35148.90543186634</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26482,19 +26482,19 @@
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184213</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61608.56780846368</v>
+        <v>61604.15423059522</v>
       </c>
       <c r="C6" t="n">
-        <v>61608.56780846357</v>
+        <v>61604.15423059545</v>
       </c>
       <c r="D6" t="n">
-        <v>23026.97056819672</v>
+        <v>23022.612818053</v>
       </c>
       <c r="E6" t="n">
-        <v>-714003.0678262596</v>
+        <v>-714231.8222486612</v>
       </c>
       <c r="F6" t="n">
-        <v>375235.9043373698</v>
+        <v>375007.1499149712</v>
       </c>
       <c r="G6" t="n">
-        <v>340547.2856512189</v>
+        <v>340481.0082796743</v>
       </c>
       <c r="H6" t="n">
-        <v>378127.394946093</v>
+        <v>378061.1175745481</v>
       </c>
       <c r="I6" t="n">
         <v>353741.5135776561</v>
       </c>
       <c r="J6" t="n">
-        <v>348403.4668671606</v>
+        <v>348403.4668671598</v>
       </c>
       <c r="K6" t="n">
-        <v>373812.8998889571</v>
+        <v>373812.8998889572</v>
       </c>
       <c r="L6" t="n">
         <v>336232.7905940833</v>
       </c>
       <c r="M6" t="n">
-        <v>176722.6544762235</v>
+        <v>176722.654476224</v>
       </c>
       <c r="N6" t="n">
+        <v>378890.7544689479</v>
+      </c>
+      <c r="O6" t="n">
         <v>378890.7544689478</v>
       </c>
-      <c r="O6" t="n">
-        <v>378890.7544689479</v>
-      </c>
       <c r="P6" t="n">
-        <v>378890.7544689481</v>
+        <v>378890.7544689478</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790958</v>
+        <v>69.78465283790567</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810306</v>
+        <v>917.2219352810296</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951248</v>
+        <v>50.7095836095124</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790958</v>
+        <v>69.78465283790567</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755389</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873773</v>
+        <v>85.82047987873727</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758405</v>
+        <v>97.11452592758474</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434003</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104722</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780167</v>
+        <v>132.2465643780176</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036569</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672083</v>
+        <v>84.22861846672112</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987476</v>
+        <v>90.83829126987527</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192289</v>
+        <v>168.8950767192291</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406285</v>
+        <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241795</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519044</v>
+        <v>84.46220888519093</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989671</v>
+        <v>7.64903505099049</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317004</v>
+        <v>75.62456067317063</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437875</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="D11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="G11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="H11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="I11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="T11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="U11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="V11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="W11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="X11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="E13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="G13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="H13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="I13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="J13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="K13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="L13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="M13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="N13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="O13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="R13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="S13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="T13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="U13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="V13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="W13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="X13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="U14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="V14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="W14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="H16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="J16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="K16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="L16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="M16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="N16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="O16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="R16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="S16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="T16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="U16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="V16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="W16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="X16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.9201465871263</v>
+        <v>26.92014658712652</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571893</v>
+        <v>11.49558901075551</v>
       </c>
       <c r="V19" t="n">
-        <v>11.4955890107573</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571912</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.49558901075767</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571891</v>
+        <v>73.89528320571912</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571891</v>
+        <v>11.49558901075488</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571885</v>
+        <v>11.49558901075522</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>11.49558901075881</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571885</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859223</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859398</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810499</v>
+        <v>55.47778196371171</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30192,16 +30192,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -30210,7 +30210,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.47778196371124</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>45.39291458738681</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>46.72521440565285</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810506</v>
+        <v>46.72521440565399</v>
       </c>
       <c r="F43" t="n">
-        <v>55.4777819637108</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U46" t="n">
-        <v>45.392914587386</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810506</v>
+        <v>55.47778196371124</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413448</v>
+        <v>0.2805413179413291</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366798</v>
+        <v>2.873093772366638</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993371</v>
+        <v>10.8155691599331</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362424</v>
+        <v>23.8105936836229</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208137</v>
+        <v>35.68590767207937</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102881</v>
+        <v>44.27152403102633</v>
       </c>
       <c r="M8" t="n">
-        <v>49.2606006939682</v>
+        <v>49.26060069396544</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356905</v>
+        <v>50.05768871356624</v>
       </c>
       <c r="O8" t="n">
-        <v>47.2680559832898</v>
+        <v>47.26805598328715</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661284</v>
+        <v>40.34219219661058</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783842</v>
+        <v>30.29530624783672</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313302</v>
+        <v>17.62255356313203</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588401</v>
+        <v>6.392835282588043</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288238</v>
+        <v>1.228069619288169</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530758</v>
+        <v>0.02244330543530632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796546</v>
+        <v>0.1501028381796461</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840348</v>
+        <v>1.449677410840267</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694247</v>
+        <v>5.168014384693958</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906991</v>
+        <v>14.18142647906912</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710676</v>
+        <v>24.23831663710541</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264824</v>
+        <v>32.59140791264642</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579666071</v>
+        <v>38.03263579665858</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655849</v>
+        <v>39.03924649655631</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847246</v>
+        <v>35.71328360847046</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449913</v>
+        <v>28.66305863449752</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447661</v>
+        <v>19.16049562447554</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768381</v>
+        <v>9.319542882767859</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608933</v>
+        <v>2.788094384608776</v>
       </c>
       <c r="T9" t="n">
-        <v>0.605019773189046</v>
+        <v>0.6050197731890121</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345698</v>
+        <v>0.009875186722345147</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486894</v>
+        <v>0.1258411772486823</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811075</v>
+        <v>1.118842466811013</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078769</v>
+        <v>3.784387403078557</v>
       </c>
       <c r="J10" t="n">
-        <v>8.89697123148234</v>
+        <v>8.896971231481841</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489318</v>
+        <v>14.62045677489236</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477333</v>
+        <v>18.70915102477229</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908319</v>
+        <v>19.72617653908208</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115627</v>
+        <v>19.25713215115519</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875112</v>
+        <v>17.78707839875013</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287784</v>
+        <v>15.21991838287699</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852435</v>
+        <v>10.53748257852376</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381978</v>
+        <v>5.658276933381661</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233977</v>
+        <v>2.193068516233854</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625817</v>
+        <v>0.5376850300625516</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564883</v>
+        <v>0.006864064213564499</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -34223,7 +34223,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -34460,7 +34460,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
         <v>447.6103584002926</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019252</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573244</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806101</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546664</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322367</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019252</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573244</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806101</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546664</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322367</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>666.4205505487556</v>
       </c>
       <c r="N23" t="n">
-        <v>892.1162607913492</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>199.7573758832166</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>889.1354172278216</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,16 +36759,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>685.763771666764</v>
+        <v>675.9826703737867</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>742.5918998397245</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>830.1339441365585</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165846</v>
       </c>
       <c r="K34" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412337</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37871,7 +37871,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222472</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38108,7 +38108,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
